--- a/estadisticas_programas_con_total.xlsx
+++ b/estadisticas_programas_con_total.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Politekon\14programs\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Politekon\14programs\github2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E9E5EE-1B07-4CAF-8230-EA817FF73418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81993AFE-A432-4ED7-8F82-6549AC779173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen por Regimen" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,10 +1329,10 @@
         <v>10264.19</v>
       </c>
       <c r="F31">
+        <v>1912.1</v>
+      </c>
+      <c r="G31">
         <v>17299.419999999998</v>
-      </c>
-      <c r="G31">
-        <v>1912.1</v>
       </c>
       <c r="H31">
         <v>0.30870724590974818</v>
@@ -1352,10 +1355,10 @@
         <v>17641.07</v>
       </c>
       <c r="F32">
+        <v>11672.57</v>
+      </c>
+      <c r="G32">
         <v>25000</v>
-      </c>
-      <c r="G32">
-        <v>11672.57</v>
       </c>
       <c r="H32">
         <v>0.228801524485446</v>
@@ -1370,8 +1373,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F98" sqref="F98:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,10 +3614,10 @@
         <v>8245.25</v>
       </c>
       <c r="F87">
+        <v>3389.96</v>
+      </c>
+      <c r="G87">
         <v>8264.19</v>
-      </c>
-      <c r="G87">
-        <v>3389.96</v>
       </c>
       <c r="H87">
         <v>0.12751713466516479</v>
@@ -3634,10 +3640,10 @@
         <v>17898.21</v>
       </c>
       <c r="F88">
+        <v>12528.75</v>
+      </c>
+      <c r="G88">
         <v>17898.21</v>
-      </c>
-      <c r="G88">
-        <v>12528.75</v>
       </c>
       <c r="H88">
         <v>0.1195516010064219</v>
@@ -3660,10 +3666,10 @@
         <v>5264.19</v>
       </c>
       <c r="F89">
+        <v>2983.03</v>
+      </c>
+      <c r="G89">
         <v>6764.19</v>
-      </c>
-      <c r="G89">
-        <v>2983.03</v>
       </c>
       <c r="H89">
         <v>0.1550414040453201</v>
@@ -3686,10 +3692,10 @@
         <v>12264.19</v>
       </c>
       <c r="F90">
+        <v>2861.65</v>
+      </c>
+      <c r="G90">
         <v>15264.19</v>
-      </c>
-      <c r="G90">
-        <v>2861.65</v>
       </c>
       <c r="H90">
         <v>0.2692477257595336</v>
@@ -3712,10 +3718,10 @@
         <v>20892.86</v>
       </c>
       <c r="F91">
+        <v>19848.21</v>
+      </c>
+      <c r="G91">
         <v>20892.86</v>
-      </c>
-      <c r="G91">
-        <v>19848.21</v>
       </c>
       <c r="H91">
         <v>2.0202156940194661E-2</v>
@@ -3738,10 +3744,10 @@
         <v>10264.19</v>
       </c>
       <c r="F92">
+        <v>2361.58</v>
+      </c>
+      <c r="G92">
         <v>14308.22</v>
-      </c>
-      <c r="G92">
-        <v>2361.58</v>
       </c>
       <c r="H92">
         <v>0.1758312672981148</v>
@@ -3764,10 +3770,10 @@
         <v>17641.07</v>
       </c>
       <c r="F93">
+        <v>14264.19</v>
+      </c>
+      <c r="G93">
         <v>25000</v>
-      </c>
-      <c r="G93">
-        <v>14264.19</v>
       </c>
       <c r="H93">
         <v>0.17216700850770361</v>
@@ -3790,10 +3796,10 @@
         <v>14263.695</v>
       </c>
       <c r="F94">
+        <v>1912.1</v>
+      </c>
+      <c r="G94">
         <v>23214.29</v>
-      </c>
-      <c r="G94">
-        <v>1912.1</v>
       </c>
       <c r="H94">
         <v>0.34006317230829403</v>
@@ -3816,10 +3822,10 @@
         <v>6889.74</v>
       </c>
       <c r="F95">
+        <v>4764.1899999999996</v>
+      </c>
+      <c r="G95">
         <v>9015.2900000000009</v>
-      </c>
-      <c r="G95">
-        <v>4764.1899999999996</v>
       </c>
       <c r="H95">
         <v>0.30850946479838148</v>
@@ -4238,7 +4244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/estadisticas_programas_con_total.xlsx
+++ b/estadisticas_programas_con_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Politekon\14programs\github2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81993AFE-A432-4ED7-8F82-6549AC779173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485333D7-C641-4AA1-A899-F87463CD1653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen por Regimen" sheetId="1" r:id="rId1"/>
@@ -538,11 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1371,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F98" sqref="F98:G110"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
